--- a/5_Testing_Datasets/Bondi Junction_2022_28.09.2020_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Bondi Junction_2022_28.09.2020_Post_Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92366F5-2B31-4F8C-B7E7-A40902699406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DDD948-0C02-46FF-A2C7-7499CB36E0E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,12 +294,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>What did you enjoy most about the community? (Select all 5 that apply)</t>
-  </si>
-  <si>
-    <t>What were your biggest learnings from the activity? (Select all 6 that apply)</t>
-  </si>
-  <si>
     <t xml:space="preserve">On a scale of 1-5, how would you rate your environmental habits after the activity? </t>
   </si>
   <si>
@@ -310,6 +304,12 @@
   </si>
   <si>
     <t>Learnt about complexity of recycling e.g. through Defy Design workshop activity</t>
+  </si>
+  <si>
+    <t>What were your biggest learnings from the activity? (Select all 3 that apply)</t>
+  </si>
+  <si>
+    <t>What did you enjoy most about the community? (Select all 3 that apply)</t>
   </si>
 </sst>
 </file>
@@ -583,9 +583,9 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,10 +608,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -632,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -708,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -801,7 +801,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -897,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -947,7 +947,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>

--- a/5_Testing_Datasets/Bondi Junction_2022_28.09.2020_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Bondi Junction_2022_28.09.2020_Post_Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DDD948-0C02-46FF-A2C7-7499CB36E0E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E524EFF-3769-4220-A159-CA3D886564E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,9 +294,6 @@
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">On a scale of 1-5, how would you rate your environmental habits after the activity? </t>
-  </si>
-  <si>
     <t>Select the appropriate response you feel represents your experience [new option] (Action)</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>What did you enjoy most about the community? (Select all 3 that apply)</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 5, where 1 is not engaged at all and 5 is very engaged, how engaged are you in making changes that positively impact the environment?</t>
   </si>
 </sst>
 </file>
@@ -583,9 +583,9 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,10 +608,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -632,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -708,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -801,7 +801,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -897,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -947,7 +947,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -1644,5 +1644,6 @@
     <hyperlink ref="B21" r:id="rId16" xr:uid="{0137ED72-29D3-4B20-B88C-0B4CB9EF0D2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>